--- a/data/scheduling_DNN/predict/0.9/result2.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result2.xlsx
@@ -570,10 +570,10 @@
         <v>0.9916858673095703</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.4001303017139435</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0002544565068092197</v>
+        <v>0.3499380350112915</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9211750030517578</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.4031067490577698</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3253855407238007</v>
+        <v>0.2683947086334229</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9280319213867188</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.8705256581306458</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1196206659078598</v>
+        <v>0.003306970233097672</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.889070987701416</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.8735949993133545</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2889885604381561</v>
+        <v>0.0002395062183495611</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.888267993927002</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.8864445686340332</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2889179289340973</v>
+        <v>3.324879799038172e-06</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>1.000292062759399</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.5259721279144287</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1797772794961929</v>
+        <v>0.2249794006347656</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8877770900726318</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.871739387512207</v>
       </c>
       <c r="W8" t="n">
-        <v>0.05551651492714882</v>
+        <v>0.000257207895629108</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8811600208282471</v>
       </c>
       <c r="V9" t="n">
-        <v>0.653493344783783</v>
+        <v>0.5231809020042419</v>
       </c>
       <c r="W9" t="n">
-        <v>0.05183211714029312</v>
+        <v>0.1281490474939346</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8736119270324707</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.5288270711898804</v>
       </c>
       <c r="W10" t="n">
-        <v>0.04925497248768806</v>
+        <v>0.1188765987753868</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9275040626525879</v>
       </c>
       <c r="V11" t="n">
-        <v>0.655465304851532</v>
+        <v>0.5124384760856628</v>
       </c>
       <c r="W11" t="n">
-        <v>0.07400508224964142</v>
+        <v>0.1722794473171234</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.884213924407959</v>
       </c>
       <c r="V12" t="n">
-        <v>0.417630136013031</v>
+        <v>0.4001189470291138</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2177004367113113</v>
+        <v>0.2343479543924332</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8806459903717041</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.4001769125461578</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2588333785533905</v>
+        <v>0.2308505326509476</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8734869956970215</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.5168401002883911</v>
       </c>
       <c r="W14" t="n">
-        <v>0.03036850690841675</v>
+        <v>0.1271970123052597</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9495861530303955</v>
       </c>
       <c r="V15" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.5171175599098206</v>
       </c>
       <c r="W15" t="n">
-        <v>0.06599458307027817</v>
+        <v>0.1870290786027908</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8761191368103027</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.4009895026683807</v>
       </c>
       <c r="W16" t="n">
-        <v>0.2102901339530945</v>
+        <v>0.2257481664419174</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8905940055847168</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.5180161595344543</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2914413511753082</v>
+        <v>0.1388142555952072</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8991920948028564</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.4011214375495911</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1556272506713867</v>
+        <v>0.2480743825435638</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.9204249382019043</v>
       </c>
       <c r="V19" t="n">
-        <v>0.652911365032196</v>
+        <v>0.4025744497776031</v>
       </c>
       <c r="W19" t="n">
-        <v>0.07156351208686829</v>
+        <v>0.2681691646575928</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8748209476470947</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.400205135345459</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1373162567615509</v>
+        <v>0.2252601683139801</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8815410137176514</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.8810064196586609</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1744837462902069</v>
+        <v>2.857908043552015e-07</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5284049510955811</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.5176336765289307</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01575277000665665</v>
+        <v>0.0001160203537438065</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5935308933258057</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.4001295864582062</v>
       </c>
       <c r="W23" t="n">
-        <v>0.007921358570456505</v>
+        <v>0.03740406408905983</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5308539867401123</v>
       </c>
       <c r="V24" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.87925124168396</v>
       </c>
       <c r="W24" t="n">
-        <v>0.07270770519971848</v>
+        <v>0.1213806495070457</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5214569568634033</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.4001319408416748</v>
       </c>
       <c r="W25" t="n">
-        <v>0.00093494588509202</v>
+        <v>0.01471975911408663</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5228891372680664</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.5116650462150574</v>
       </c>
       <c r="W26" t="n">
-        <v>0.003484635381028056</v>
+        <v>0.0001259802229469642</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.518895149230957</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.5334940552711487</v>
       </c>
       <c r="W27" t="n">
-        <v>0.003027302445843816</v>
+        <v>0.0002131280634785071</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5213980674743652</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.5171639323234558</v>
       </c>
       <c r="W28" t="n">
-        <v>0.003353281179443002</v>
+        <v>1.792790135368705e-05</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5304169654846191</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.8666114211082458</v>
       </c>
       <c r="W29" t="n">
-        <v>0.01271980721503496</v>
+        <v>0.1130267083644867</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5278398990631104</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.8735000491142273</v>
       </c>
       <c r="W30" t="n">
-        <v>9.312498150393367e-06</v>
+        <v>0.1194809377193451</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5197110176086426</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.4024998247623444</v>
       </c>
       <c r="W31" t="n">
-        <v>0.02774568647146225</v>
+        <v>0.01373846363276243</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5422959327697754</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.5216013193130493</v>
       </c>
       <c r="W32" t="n">
-        <v>0.006523511372506618</v>
+        <v>0.0004282670270185918</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5196170806884766</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.528012752532959</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01040212716907263</v>
+        <v>7.048730913084e-05</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5820798873901367</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.8735721111297607</v>
       </c>
       <c r="W34" t="n">
-        <v>2.250746788945435e-08</v>
+        <v>0.0849677175283432</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5236070156097412</v>
       </c>
       <c r="V35" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.8722257018089294</v>
       </c>
       <c r="W35" t="n">
-        <v>0.02100690081715584</v>
+        <v>0.121534988284111</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5195930004119873</v>
       </c>
       <c r="V36" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.8652865290641785</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01787030696868896</v>
+        <v>0.1195040121674538</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.517693042755127</v>
       </c>
       <c r="V37" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.5179747343063354</v>
       </c>
       <c r="W37" t="n">
-        <v>0.02787004970014095</v>
+        <v>7.935013002224878e-08</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5187339782714844</v>
       </c>
       <c r="V38" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.3996255695819855</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01790509559214115</v>
+        <v>0.01418681256473064</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5755329132080078</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.3996008038520813</v>
       </c>
       <c r="W39" t="n">
-        <v>0.000133424749947153</v>
+        <v>0.03095210716128349</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5208890438079834</v>
       </c>
       <c r="V40" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.4009878039360046</v>
       </c>
       <c r="W40" t="n">
-        <v>0.01999857276678085</v>
+        <v>0.01437630690634251</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5241158008575439</v>
       </c>
       <c r="V41" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.865508496761322</v>
       </c>
       <c r="W41" t="n">
-        <v>0.09337018430233002</v>
+        <v>0.1165489703416824</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3925778865814209</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.4001572132110596</v>
       </c>
       <c r="W42" t="n">
-        <v>0.00967676006257534</v>
+        <v>5.744619193137623e-05</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4156990051269531</v>
       </c>
       <c r="V43" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.8683603405952454</v>
       </c>
       <c r="W43" t="n">
-        <v>0.001908625708892941</v>
+        <v>0.2049022912979126</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3903460502624512</v>
       </c>
       <c r="V44" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.399109959602356</v>
       </c>
       <c r="W44" t="n">
-        <v>0.1969216018915176</v>
+        <v>7.680610724491999e-05</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.4438190460205078</v>
       </c>
       <c r="V45" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.8691218495368958</v>
       </c>
       <c r="W45" t="n">
-        <v>0.06201107054948807</v>
+        <v>0.1808824688196182</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3913009166717529</v>
       </c>
       <c r="V46" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.8563042283058167</v>
       </c>
       <c r="W46" t="n">
-        <v>0.1708461940288544</v>
+        <v>0.2162280827760696</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3969211578369141</v>
       </c>
       <c r="V47" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.3992073237895966</v>
       </c>
       <c r="W47" t="n">
-        <v>0.000616127101238817</v>
+        <v>5.226554549153661e-06</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3907520771026611</v>
       </c>
       <c r="V48" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.8726298809051514</v>
       </c>
       <c r="W48" t="n">
-        <v>0.000724045850802213</v>
+        <v>0.2322062104940414</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3896410465240479</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.8727442026138306</v>
       </c>
       <c r="W49" t="n">
-        <v>0.01836828328669071</v>
+        <v>0.2333886623382568</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3947868347167969</v>
       </c>
       <c r="V50" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.5269970297813416</v>
       </c>
       <c r="W50" t="n">
-        <v>0.1664115637540817</v>
+        <v>0.01747953519225121</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.4413139820098877</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.399113655090332</v>
       </c>
       <c r="W51" t="n">
-        <v>0.004162999801337719</v>
+        <v>0.001780867576599121</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.391103982925415</v>
       </c>
       <c r="V52" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.8971413969993591</v>
       </c>
       <c r="W52" t="n">
-        <v>0.001554134418256581</v>
+        <v>0.2560738623142242</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3897881507873535</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.8752444982528687</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0007753951940685511</v>
+        <v>0.2356678694486618</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.389495849609375</v>
       </c>
       <c r="V54" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.8729324340820312</v>
       </c>
       <c r="W54" t="n">
-        <v>0.001500086393207312</v>
+        <v>0.2337109297513962</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.4282548427581787</v>
       </c>
       <c r="V55" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.5121625065803528</v>
       </c>
       <c r="W55" t="n">
-        <v>0.1611182987689972</v>
+        <v>0.007040495984256268</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3909649848937988</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.4000068604946136</v>
       </c>
       <c r="W56" t="n">
-        <v>0.0007068199338391423</v>
+        <v>8.175551192834973e-05</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.388045072555542</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.8718948364257812</v>
       </c>
       <c r="W57" t="n">
-        <v>0.013386988081038</v>
+        <v>0.2341105937957764</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3997049331665039</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.5157018303871155</v>
       </c>
       <c r="W58" t="n">
-        <v>0.038021020591259</v>
+        <v>0.0134552801027894</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.38932204246521</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.3996009528636932</v>
       </c>
       <c r="W59" t="n">
-        <v>0.03492673859000206</v>
+        <v>0.0001056559995049611</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3894951343536377</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.399188756942749</v>
       </c>
       <c r="W60" t="n">
-        <v>0.01824286580085754</v>
+        <v>9.396632231073454e-05</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3905701637268066</v>
       </c>
       <c r="V61" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.4009919464588165</v>
       </c>
       <c r="W61" t="n">
-        <v>0.0179588757455349</v>
+        <v>0.0001086135525838472</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8709721565246582</v>
       </c>
       <c r="V62" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.8730294704437256</v>
       </c>
       <c r="W62" t="n">
-        <v>0.2490246295928955</v>
+        <v>4.232540504744975e-06</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.932124137878418</v>
       </c>
       <c r="V63" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.5189769864082336</v>
       </c>
       <c r="W63" t="n">
-        <v>0.0168402474373579</v>
+        <v>0.1706905663013458</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8726570606231689</v>
       </c>
       <c r="V64" t="n">
-        <v>0.372467577457428</v>
+        <v>0.5226327180862427</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2501895129680634</v>
+        <v>0.122517041862011</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8706390857696533</v>
       </c>
       <c r="V65" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.522355854511261</v>
       </c>
       <c r="W65" t="n">
-        <v>0.01100172195583582</v>
+        <v>0.1213012114167213</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8687129020690918</v>
       </c>
       <c r="V66" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.4001438915729523</v>
       </c>
       <c r="W66" t="n">
-        <v>0.04617938026785851</v>
+        <v>0.219556912779808</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.959338903427124</v>
       </c>
       <c r="V67" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.8714640736579895</v>
       </c>
       <c r="W67" t="n">
-        <v>0.0002634434495121241</v>
+        <v>0.007721985690295696</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8837869167327881</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.5213286280632019</v>
       </c>
       <c r="W68" t="n">
-        <v>0.03405973315238953</v>
+        <v>0.1313760131597519</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.876384973526001</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.8864808082580566</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1237612888216972</v>
+        <v>0.0001019258779706433</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8652999401092529</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.5282707810401917</v>
       </c>
       <c r="W70" t="n">
-        <v>0.08357784152030945</v>
+        <v>0.1135886535048485</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.9089839458465576</v>
       </c>
       <c r="V71" t="n">
-        <v>0.801636278629303</v>
+        <v>0.3999965786933899</v>
       </c>
       <c r="W71" t="n">
-        <v>0.01152352150529623</v>
+        <v>0.2590681314468384</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8926680088043213</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.4001570641994476</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1615055203437805</v>
+        <v>0.2425670325756073</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8716881275177002</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.8731010556221008</v>
       </c>
       <c r="W73" t="n">
-        <v>0.2062750905752182</v>
+        <v>1.996365881495876e-06</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8626980781555176</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.5276074409484863</v>
       </c>
       <c r="W74" t="n">
-        <v>0.08206499367952347</v>
+        <v>0.1122857332229614</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8734109401702881</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.5170940756797791</v>
       </c>
       <c r="W75" t="n">
-        <v>0.168039008975029</v>
+        <v>0.1269617080688477</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8689100742340088</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.5174593329429626</v>
       </c>
       <c r="W76" t="n">
-        <v>0.2037823349237442</v>
+        <v>0.1235176250338554</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8892970085144043</v>
       </c>
       <c r="V77" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.5454946160316467</v>
       </c>
       <c r="W77" t="n">
-        <v>0.007473351899534464</v>
+        <v>0.1182000860571861</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.9593110084533691</v>
       </c>
       <c r="V78" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.8775492906570435</v>
       </c>
       <c r="W78" t="n">
-        <v>0.374886155128479</v>
+        <v>0.006684978492558002</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8728041648864746</v>
       </c>
       <c r="V79" t="n">
-        <v>0.490907609462738</v>
+        <v>0.869148313999176</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1458449810743332</v>
+        <v>1.336524564976571e-05</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8634531497955322</v>
       </c>
       <c r="V80" t="n">
-        <v>0.975181519985199</v>
+        <v>0.3998839855194092</v>
       </c>
       <c r="W80" t="n">
-        <v>0.01248322892934084</v>
+        <v>0.2148963660001755</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8643980026245117</v>
       </c>
       <c r="V81" t="n">
-        <v>0.654336154460907</v>
+        <v>0.8732166290283203</v>
       </c>
       <c r="W81" t="n">
-        <v>0.04412598162889481</v>
+        <v>7.776817074045539e-05</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5424051284790039</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.5232462286949158</v>
       </c>
       <c r="W82" t="n">
-        <v>0.00027681645588018</v>
+        <v>0.0003670634469017386</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5236480236053467</v>
       </c>
       <c r="V83" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.3998849391937256</v>
       </c>
       <c r="W83" t="n">
-        <v>0.03082687966525555</v>
+        <v>0.01531730126589537</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5245778560638428</v>
       </c>
       <c r="V84" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.3990815877914429</v>
       </c>
       <c r="W84" t="n">
-        <v>0.2030726671218872</v>
+        <v>0.01574931293725967</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5231480598449707</v>
       </c>
       <c r="V85" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.4025121033191681</v>
       </c>
       <c r="W85" t="n">
-        <v>0.07790995389223099</v>
+        <v>0.01455303374677896</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5167958736419678</v>
       </c>
       <c r="V86" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.3992102146148682</v>
       </c>
       <c r="W86" t="n">
-        <v>0.1054021418094635</v>
+        <v>0.01382638700306416</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5192520618438721</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.8812567591667175</v>
       </c>
       <c r="W87" t="n">
-        <v>0.0001969975710380822</v>
+        <v>0.131047397851944</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5455319881439209</v>
       </c>
       <c r="V88" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.8791578412055969</v>
       </c>
       <c r="W88" t="n">
-        <v>0.003003905992954969</v>
+        <v>0.1113062128424644</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5186169147491455</v>
       </c>
       <c r="V89" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.5222486257553101</v>
       </c>
       <c r="W89" t="n">
-        <v>3.792089410126209e-05</v>
+        <v>1.318932481808588e-05</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5207908153533936</v>
       </c>
       <c r="V90" t="n">
-        <v>0.371780127286911</v>
+        <v>0.5251208543777466</v>
       </c>
       <c r="W90" t="n">
-        <v>0.02220418490469456</v>
+        <v>1.874923873401713e-05</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5233290195465088</v>
       </c>
       <c r="V91" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.8743847608566284</v>
       </c>
       <c r="W91" t="n">
-        <v>0.001122670364566147</v>
+        <v>0.1232401356101036</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5206360816955566</v>
       </c>
       <c r="V92" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.3992057740688324</v>
       </c>
       <c r="W92" t="n">
-        <v>0.03189342841506004</v>
+        <v>0.01474531926214695</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5774619579315186</v>
       </c>
       <c r="V93" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.8744598031044006</v>
       </c>
       <c r="W93" t="n">
-        <v>0.005905308295041323</v>
+        <v>0.08820772171020508</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5187199115753174</v>
       </c>
       <c r="V94" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.5165475606918335</v>
       </c>
       <c r="W94" t="n">
-        <v>0.02181688696146011</v>
+        <v>4.719108346762368e-06</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5224220752716064</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.4003230035305023</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01097509264945984</v>
+        <v>0.01490818336606026</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.519157886505127</v>
       </c>
       <c r="V96" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.5280850529670715</v>
       </c>
       <c r="W96" t="n">
-        <v>0.08012239634990692</v>
+        <v>7.96942986198701e-05</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5225269794464111</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.8724794983863831</v>
       </c>
       <c r="W97" t="n">
-        <v>0.0003107615921180695</v>
+        <v>0.1224667653441429</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5172939300537109</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.401104062795639</v>
       </c>
       <c r="W98" t="n">
-        <v>0.0001619164104340598</v>
+        <v>0.01350008510053158</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5207340717315674</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.8860470652580261</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0009190739947371185</v>
+        <v>0.1334535777568817</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.524090051651001</v>
       </c>
       <c r="V100" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.8626304268836975</v>
       </c>
       <c r="W100" t="n">
-        <v>0.02117330394685268</v>
+        <v>0.1146095842123032</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5229711532592773</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.8739699125289917</v>
       </c>
       <c r="W101" t="n">
-        <v>0.0003961889015045017</v>
+        <v>0.1232001259922981</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4033019542694092</v>
       </c>
       <c r="V102" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.8892055749893188</v>
       </c>
       <c r="W102" t="n">
-        <v>0.004343237727880478</v>
+        <v>0.2361023277044296</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4017729759216309</v>
       </c>
       <c r="V103" t="n">
-        <v>0.699232816696167</v>
+        <v>0.8589193820953369</v>
       </c>
       <c r="W103" t="n">
-        <v>0.08848235756158829</v>
+        <v>0.208982840180397</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4654269218444824</v>
       </c>
       <c r="V104" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.4004127085208893</v>
       </c>
       <c r="W104" t="n">
-        <v>0.1389502435922623</v>
+        <v>0.004226848017424345</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.413193941116333</v>
       </c>
       <c r="V105" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.517829418182373</v>
       </c>
       <c r="W105" t="n">
-        <v>0.0574502982199192</v>
+        <v>0.01094858348369598</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3906929492950439</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.5210973024368286</v>
       </c>
       <c r="W106" t="n">
-        <v>0.007645026315003633</v>
+        <v>0.01700529456138611</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3898088932037354</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.8679766058921814</v>
       </c>
       <c r="W107" t="n">
-        <v>0.01822461187839508</v>
+        <v>0.2286443561315536</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3906929492950439</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.3990865349769592</v>
       </c>
       <c r="W108" t="n">
-        <v>0.005347161553800106</v>
+        <v>7.045228267088532e-05</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3907661437988281</v>
       </c>
       <c r="V109" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.8919183611869812</v>
       </c>
       <c r="W109" t="n">
-        <v>0.06876353174448013</v>
+        <v>0.2511535584926605</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.4159150123596191</v>
       </c>
       <c r="V110" t="n">
-        <v>0.490833193063736</v>
+        <v>0.3990737497806549</v>
       </c>
       <c r="W110" t="n">
-        <v>0.005612733773887157</v>
+        <v>0.0002836281200870872</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3939800262451172</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.5175904631614685</v>
       </c>
       <c r="W111" t="n">
-        <v>0.03318348899483681</v>
+        <v>0.01527953986078501</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4118061065673828</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.5172230005264282</v>
       </c>
       <c r="W112" t="n">
-        <v>3.393355291336775e-05</v>
+        <v>0.01111272163689137</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3950960636138916</v>
       </c>
       <c r="V113" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.4004286229610443</v>
       </c>
       <c r="W113" t="n">
-        <v>0.1677980571985245</v>
+        <v>2.843618858605623e-05</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3940849304199219</v>
       </c>
       <c r="V114" t="n">
-        <v>0.802345335483551</v>
+        <v>0.8708075881004333</v>
       </c>
       <c r="W114" t="n">
-        <v>0.1666765511035919</v>
+        <v>0.2272644937038422</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3932480812072754</v>
       </c>
       <c r="V115" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.8856578469276428</v>
       </c>
       <c r="W115" t="n">
-        <v>0.09351503849029541</v>
+        <v>0.2424673736095428</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3925919532775879</v>
       </c>
       <c r="V116" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.4000102281570435</v>
       </c>
       <c r="W116" t="n">
-        <v>0.001750631956383586</v>
+        <v>5.503080319613218e-05</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.394467830657959</v>
       </c>
       <c r="V117" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.8608973026275635</v>
       </c>
       <c r="W117" t="n">
-        <v>3.214496973669156e-05</v>
+        <v>0.2175564467906952</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4213120937347412</v>
       </c>
       <c r="V118" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.5171334743499756</v>
       </c>
       <c r="W118" t="n">
-        <v>0.02867676690220833</v>
+        <v>0.009181736968457699</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3931441307067871</v>
       </c>
       <c r="V119" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.4004548490047455</v>
       </c>
       <c r="W119" t="n">
-        <v>0.1658787131309509</v>
+        <v>5.344660166883841e-05</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3937721252441406</v>
       </c>
       <c r="V120" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.5204063057899475</v>
       </c>
       <c r="W120" t="n">
-        <v>0.06739731878042221</v>
+        <v>0.01603621616959572</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3959298133850098</v>
       </c>
       <c r="V121" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.3991077840328217</v>
       </c>
       <c r="W121" t="n">
-        <v>0.0003088993253186345</v>
+        <v>1.009949755825801e-05</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.9389328956604004</v>
       </c>
       <c r="V122" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.527961790561676</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1586664766073227</v>
+        <v>0.1688972562551498</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.8928558826446533</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.4031600654125214</v>
       </c>
       <c r="W123" t="n">
-        <v>0.05736803635954857</v>
+        <v>0.2398019880056381</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8712520599365234</v>
       </c>
       <c r="V124" t="n">
-        <v>0.417632520198822</v>
+        <v>0.8780126571655273</v>
       </c>
       <c r="W124" t="n">
-        <v>0.2057706862688065</v>
+        <v>4.570567398332059e-05</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8765079975128174</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.8726436495780945</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1722629964351654</v>
+        <v>1.493318541179178e-05</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.939467191696167</v>
       </c>
       <c r="V126" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.8667011857032776</v>
       </c>
       <c r="W126" t="n">
-        <v>0.3148547410964966</v>
+        <v>0.0052948915399611</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8783500194549561</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.521636426448822</v>
       </c>
       <c r="W127" t="n">
-        <v>0.2122302651405334</v>
+        <v>0.1272445917129517</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8748910427093506</v>
       </c>
       <c r="V128" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.3990961611270905</v>
       </c>
       <c r="W128" t="n">
-        <v>0.005027895327657461</v>
+        <v>0.2263807654380798</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8698959350585938</v>
       </c>
       <c r="V129" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.8882540464401245</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1330592781305313</v>
+        <v>0.0003370202612131834</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9170200824737549</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.5157287120819092</v>
       </c>
       <c r="W130" t="n">
-        <v>0.2493899613618851</v>
+        <v>0.1610347628593445</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.877485990524292</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.8921011686325073</v>
       </c>
       <c r="W131" t="n">
-        <v>0.173369437456131</v>
+        <v>0.0002136034308932722</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8765499591827393</v>
       </c>
       <c r="V132" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.5080351233482361</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1491192132234573</v>
+        <v>0.1358031779527664</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9003729820251465</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.4004323780536652</v>
       </c>
       <c r="W133" t="n">
-        <v>0.09446360915899277</v>
+        <v>0.2499406039714813</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.9889321327209473</v>
       </c>
       <c r="V134" t="n">
-        <v>0.490329772233963</v>
+        <v>0.4004559218883514</v>
       </c>
       <c r="W134" t="n">
-        <v>0.2486043125391006</v>
+        <v>0.3463042080402374</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8949708938598633</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.8717928528785706</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1017291769385338</v>
+        <v>0.0005372216110117733</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8726749420166016</v>
       </c>
       <c r="V136" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.4004572629928589</v>
       </c>
       <c r="W136" t="n">
-        <v>0.04810968041419983</v>
+        <v>0.2229895293712616</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8729720115661621</v>
       </c>
       <c r="V137" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.5275173783302307</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2508752346038818</v>
+        <v>0.1193389073014259</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.9146978855133057</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.5235837697982788</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1520242094993591</v>
+        <v>0.1529702544212341</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8773729801177979</v>
       </c>
       <c r="V139" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.5196558833122253</v>
       </c>
       <c r="W139" t="n">
-        <v>0.1233069747686386</v>
+        <v>0.1279615163803101</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8759720325469971</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.5174914002418518</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1375475078821182</v>
+        <v>0.1285083591938019</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8754050731658936</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.5322877764701843</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1713621318340302</v>
+        <v>0.117729477584362</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5399000644683838</v>
       </c>
       <c r="V142" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.4026215970516205</v>
       </c>
       <c r="W142" t="n">
-        <v>0.03577922284603119</v>
+        <v>0.01884537748992443</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5236990451812744</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.400962620973587</v>
       </c>
       <c r="W143" t="n">
-        <v>0.003472271841019392</v>
+        <v>0.01506423018872738</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5232110023498535</v>
       </c>
       <c r="V144" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.3999147117137909</v>
       </c>
       <c r="W144" t="n">
-        <v>0.01626894250512123</v>
+        <v>0.01520197559148073</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.519927978515625</v>
       </c>
       <c r="V145" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.8784851431846619</v>
       </c>
       <c r="W145" t="n">
-        <v>0.01793964765965939</v>
+        <v>0.1285632401704788</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5235288143157959</v>
       </c>
       <c r="V146" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.8657737970352173</v>
       </c>
       <c r="W146" t="n">
-        <v>0.03087564557790756</v>
+        <v>0.1171316280961037</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5909957885742188</v>
       </c>
       <c r="V147" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.4025697410106659</v>
       </c>
       <c r="W147" t="n">
-        <v>0.03005180507898331</v>
+        <v>0.03550437465310097</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5227761268615723</v>
       </c>
       <c r="V148" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.8665496110916138</v>
       </c>
       <c r="W148" t="n">
-        <v>0.001018525916151702</v>
+        <v>0.1181802079081535</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5235641002655029</v>
       </c>
       <c r="V149" t="n">
-        <v>0.975210964679718</v>
+        <v>0.5175126791000366</v>
       </c>
       <c r="W149" t="n">
-        <v>0.2039848864078522</v>
+        <v>3.66196982213296e-05</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5246720314025879</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.4001396000385284</v>
       </c>
       <c r="W150" t="n">
-        <v>0.004037590697407722</v>
+        <v>0.0155083267018199</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5201470851898193</v>
       </c>
       <c r="V151" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.8687803149223328</v>
       </c>
       <c r="W151" t="n">
-        <v>0.09862041473388672</v>
+        <v>0.1215451285243034</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5376501083374023</v>
       </c>
       <c r="V152" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.3993155360221863</v>
       </c>
       <c r="W152" t="n">
-        <v>0.01349062006920576</v>
+        <v>0.01913645304739475</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5202908515930176</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.4025879502296448</v>
       </c>
       <c r="W153" t="n">
-        <v>0.003227205947041512</v>
+        <v>0.01385397277772427</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5224850177764893</v>
       </c>
       <c r="V154" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.8833491802215576</v>
       </c>
       <c r="W154" t="n">
-        <v>0.01716775819659233</v>
+        <v>0.1302229464054108</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.525230884552002</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.8685445189476013</v>
       </c>
       <c r="W155" t="n">
-        <v>0.003857401199638844</v>
+        <v>0.1178642511367798</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5228221416473389</v>
       </c>
       <c r="V156" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.3996221423149109</v>
       </c>
       <c r="W156" t="n">
-        <v>0.2054420411586761</v>
+        <v>0.01517823990434408</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5226728916168213</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.4025212228298187</v>
       </c>
       <c r="W157" t="n">
-        <v>0.003581356257200241</v>
+        <v>0.01443642377853394</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5214531421661377</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.8702116012573242</v>
       </c>
       <c r="W158" t="n">
-        <v>0.000941101519856602</v>
+        <v>0.1216324642300606</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5248031616210938</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.3990993499755859</v>
       </c>
       <c r="W159" t="n">
-        <v>0.00122962286695838</v>
+        <v>0.01580144837498665</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5237479209899902</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.5657405853271484</v>
       </c>
       <c r="W160" t="n">
-        <v>1.495067863288568e-06</v>
+        <v>0.001763383857905865</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5237541198730469</v>
       </c>
       <c r="V161" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.5240583419799805</v>
       </c>
       <c r="W161" t="n">
-        <v>0.03397493064403534</v>
+        <v>9.255109034711495e-08</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3977518081665039</v>
       </c>
       <c r="V162" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.5291304588317871</v>
       </c>
       <c r="W162" t="n">
-        <v>0.004066137131303549</v>
+        <v>0.0172603502869606</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.4476318359375</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.5024868845939636</v>
       </c>
       <c r="W163" t="n">
-        <v>0.001866370090283453</v>
+        <v>0.003009076463058591</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3946318626403809</v>
       </c>
       <c r="V164" t="n">
-        <v>0.405481219291687</v>
+        <v>0.5234686136245728</v>
       </c>
       <c r="W164" t="n">
-        <v>0.0001177085432573222</v>
+        <v>0.01659890823066235</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3954398632049561</v>
       </c>
       <c r="V165" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.5284553170204163</v>
       </c>
       <c r="W165" t="n">
-        <v>0.0004884087247774005</v>
+        <v>0.01769311167299747</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.401526927947998</v>
       </c>
       <c r="V166" t="n">
-        <v>0.505433976650238</v>
+        <v>0.5084433555603027</v>
       </c>
       <c r="W166" t="n">
-        <v>0.01079667452722788</v>
+        <v>0.0114311221987009</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.5442850589752197</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.8705157041549683</v>
       </c>
       <c r="W167" t="n">
-        <v>0.0003415259416215122</v>
+        <v>0.1064264327287674</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3942511081695557</v>
       </c>
       <c r="V168" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.8728966116905212</v>
       </c>
       <c r="W168" t="n">
-        <v>0.337492823600769</v>
+        <v>0.2291015237569809</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.4507031440734863</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.5191991925239563</v>
       </c>
       <c r="W169" t="n">
-        <v>0.01860198006033897</v>
+        <v>0.004691708832979202</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.396899938583374</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.517911970615387</v>
       </c>
       <c r="W170" t="n">
-        <v>0.06580439209938049</v>
+        <v>0.01464391220360994</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3937578201293945</v>
       </c>
       <c r="V171" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.3999230265617371</v>
       </c>
       <c r="W171" t="n">
-        <v>0.0005056108930148184</v>
+        <v>3.800976992351934e-05</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3956081867218018</v>
       </c>
       <c r="V172" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.5174285173416138</v>
       </c>
       <c r="W172" t="n">
-        <v>0.0005511409835889935</v>
+        <v>0.01484019309282303</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.395007848739624</v>
       </c>
       <c r="V173" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.5234016180038452</v>
       </c>
       <c r="W173" t="n">
-        <v>0.01724591292440891</v>
+        <v>0.01648496091365814</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4033420085906982</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.4032618403434753</v>
       </c>
       <c r="W174" t="n">
-        <v>0.06238450855016708</v>
+        <v>6.426947862792076e-09</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.4185419082641602</v>
       </c>
       <c r="V175" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.56687992811203</v>
       </c>
       <c r="W175" t="n">
-        <v>0.1490152627229691</v>
+        <v>0.02200416848063469</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3974418640136719</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.517380952835083</v>
       </c>
       <c r="W176" t="n">
-        <v>0.03428410738706589</v>
+        <v>0.01438538543879986</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4206490516662598</v>
       </c>
       <c r="V177" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.8861742615699768</v>
       </c>
       <c r="W177" t="n">
-        <v>0.006915939506143332</v>
+        <v>0.2167137265205383</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3943798542022705</v>
       </c>
       <c r="V178" t="n">
-        <v>0.490370512008667</v>
+        <v>0.8638133406639099</v>
       </c>
       <c r="W178" t="n">
-        <v>0.009214206598699093</v>
+        <v>0.2203678041696548</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3962619304656982</v>
       </c>
       <c r="V179" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.5210934281349182</v>
       </c>
       <c r="W179" t="n">
-        <v>0.002068548230454326</v>
+        <v>0.01558290235698223</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4160609245300293</v>
       </c>
       <c r="V180" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.4009563624858856</v>
       </c>
       <c r="W180" t="n">
-        <v>0.004764365497976542</v>
+        <v>0.0002281477936776355</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4114670753479004</v>
       </c>
       <c r="V181" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.3998865187168121</v>
       </c>
       <c r="W181" t="n">
-        <v>0.3182227611541748</v>
+        <v>0.0001341092865914106</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8887379169464111</v>
       </c>
       <c r="V182" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.5172706246376038</v>
       </c>
       <c r="W182" t="n">
-        <v>0.007540973834693432</v>
+        <v>0.137987956404686</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8711669445037842</v>
       </c>
       <c r="V183" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.8663447499275208</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1447933316230774</v>
+        <v>2.325356035726145e-05</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8774189949035645</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.5053420662879944</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1390990018844604</v>
+        <v>0.1384412348270416</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.9477601051330566</v>
       </c>
       <c r="V185" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.8895996809005737</v>
       </c>
       <c r="W185" t="n">
-        <v>0.3555058240890503</v>
+        <v>0.003382634837180376</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.875478982925415</v>
       </c>
       <c r="V186" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.8662378787994385</v>
       </c>
       <c r="W186" t="n">
-        <v>0.08099961280822754</v>
+        <v>8.539800182916224e-05</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8856179714202881</v>
       </c>
       <c r="V187" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.5286654233932495</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1447937339544296</v>
+        <v>0.1274151206016541</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.874830961227417</v>
       </c>
       <c r="V188" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.4009869396686554</v>
       </c>
       <c r="W188" t="n">
-        <v>0.246600016951561</v>
+        <v>0.2245281636714935</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.936460018157959</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.8804214000701904</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1297867596149445</v>
+        <v>0.003140326822176576</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8793559074401855</v>
       </c>
       <c r="V190" t="n">
-        <v>0.524641752243042</v>
+        <v>0.522375762462616</v>
       </c>
       <c r="W190" t="n">
-        <v>0.125822126865387</v>
+        <v>0.1274348199367523</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8943660259246826</v>
       </c>
       <c r="V191" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.875191867351532</v>
       </c>
       <c r="W191" t="n">
-        <v>0.008526608347892761</v>
+        <v>0.0003676483465824276</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.873978853225708</v>
       </c>
       <c r="V192" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.5177214741706848</v>
       </c>
       <c r="W192" t="n">
-        <v>0.08015617728233337</v>
+        <v>0.1269193142652512</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.9335060119628906</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.8799110054969788</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1147740632295609</v>
+        <v>0.00287242466583848</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8959450721740723</v>
       </c>
       <c r="V194" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.5225066542625427</v>
       </c>
       <c r="W194" t="n">
-        <v>0.2745155990123749</v>
+        <v>0.1394562572240829</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8701391220092773</v>
       </c>
       <c r="V195" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.401093453168869</v>
       </c>
       <c r="W195" t="n">
-        <v>0.01112114265561104</v>
+        <v>0.2200038433074951</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8728771209716797</v>
       </c>
       <c r="V196" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.8885263204574585</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1363590806722641</v>
+        <v>0.0002448974410071969</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.970879077911377</v>
       </c>
       <c r="V197" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.5169185400009155</v>
       </c>
       <c r="W197" t="n">
-        <v>0.383192390203476</v>
+        <v>0.2060801684856415</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8842751979827881</v>
       </c>
       <c r="V198" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.3998873829841614</v>
       </c>
       <c r="W198" t="n">
-        <v>0.03669841960072517</v>
+        <v>0.2346315532922745</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8763120174407959</v>
       </c>
       <c r="V199" t="n">
-        <v>0.417652815580368</v>
+        <v>0.4001585841178894</v>
       </c>
       <c r="W199" t="n">
-        <v>0.2103682607412338</v>
+        <v>0.2267220914363861</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8683688640594482</v>
       </c>
       <c r="V200" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.8695966005325317</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1180296093225479</v>
+        <v>1.507336833128647e-06</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9519839286804199</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.5219871401786804</v>
       </c>
       <c r="W201" t="n">
-        <v>0.182818278670311</v>
+        <v>0.184897243976593</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5467689037322998</v>
       </c>
       <c r="V202" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.51939457654953</v>
       </c>
       <c r="W202" t="n">
-        <v>0.06558959186077118</v>
+        <v>0.0007493537850677967</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5952198505401611</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.8633020520210266</v>
       </c>
       <c r="W203" t="n">
-        <v>0.004945909604430199</v>
+        <v>0.07186806946992874</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5840129852294922</v>
       </c>
       <c r="V204" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.5237885713577271</v>
       </c>
       <c r="W204" t="n">
-        <v>0.04498323798179626</v>
+        <v>0.003626980120316148</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.525346040725708</v>
       </c>
       <c r="V205" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.5177869200706482</v>
       </c>
       <c r="W205" t="n">
-        <v>0.09721693396568298</v>
+        <v>5.714030339731835e-05</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5240237712860107</v>
       </c>
       <c r="V206" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.8638681173324585</v>
       </c>
       <c r="W206" t="n">
-        <v>0.03001480549573898</v>
+        <v>0.1154941767454147</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5269229412078857</v>
       </c>
       <c r="V207" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.8817368149757385</v>
       </c>
       <c r="W207" t="n">
-        <v>0.07526133954524994</v>
+        <v>0.1258928775787354</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5223240852355957</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.8699358105659485</v>
       </c>
       <c r="W208" t="n">
-        <v>0.003461273154243827</v>
+        <v>0.1208339110016823</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5264570713043213</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.4024317562580109</v>
       </c>
       <c r="W209" t="n">
-        <v>0.004268355201929808</v>
+        <v>0.01538227871060371</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5314280986785889</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.8702653050422668</v>
       </c>
       <c r="W210" t="n">
-        <v>0.01296999398618937</v>
+        <v>0.1148106530308723</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5871717929840088</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.3990890681743622</v>
       </c>
       <c r="W211" t="n">
-        <v>0.009360958822071552</v>
+        <v>0.03537511080503464</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5258448123931885</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.5234363079071045</v>
       </c>
       <c r="W212" t="n">
-        <v>3.159188111112599e-08</v>
+        <v>5.800893632113002e-06</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5282390117645264</v>
       </c>
       <c r="V213" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.8672828078269958</v>
       </c>
       <c r="W213" t="n">
-        <v>0.03111321851611137</v>
+        <v>0.1149506941437721</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5271289348602295</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.3999190330505371</v>
       </c>
       <c r="W214" t="n">
-        <v>0.0119905024766922</v>
+        <v>0.01618235930800438</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5255260467529297</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.3991102576255798</v>
       </c>
       <c r="W215" t="n">
-        <v>0.01163232605904341</v>
+        <v>0.01598095148801804</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5622489452362061</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.3995943367481232</v>
       </c>
       <c r="W216" t="n">
-        <v>0.003226416883990169</v>
+        <v>0.02645652182400227</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5448958873748779</v>
       </c>
       <c r="V217" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.4006490707397461</v>
       </c>
       <c r="W217" t="n">
-        <v>0.01619417406618595</v>
+        <v>0.02080714330077171</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5228350162506104</v>
       </c>
       <c r="V218" t="n">
-        <v>0.35074183344841</v>
+        <v>0.4024376273155212</v>
       </c>
       <c r="W218" t="n">
-        <v>0.02961606346070766</v>
+        <v>0.01449553109705448</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5254170894622803</v>
       </c>
       <c r="V219" t="n">
-        <v>0.653571605682373</v>
+        <v>0.5215676426887512</v>
       </c>
       <c r="W219" t="n">
-        <v>0.01642357930541039</v>
+        <v>1.481824074289761e-05</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5275909900665283</v>
       </c>
       <c r="V220" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.5228779911994934</v>
       </c>
       <c r="W220" t="n">
-        <v>0.01905238628387451</v>
+        <v>2.221235808974598e-05</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5326099395751953</v>
       </c>
       <c r="V221" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.877863347530365</v>
       </c>
       <c r="W221" t="n">
-        <v>0.02923203259706497</v>
+        <v>0.1191999167203903</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3943140506744385</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.8750285506248474</v>
       </c>
       <c r="W222" t="n">
-        <v>0.01227256469428539</v>
+        <v>0.2310864329338074</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3931200504302979</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.5130537748336792</v>
       </c>
       <c r="W223" t="n">
-        <v>0.009523779153823853</v>
+        <v>0.01438409835100174</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3973660469055176</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.8804627060890198</v>
       </c>
       <c r="W224" t="n">
-        <v>0.0004114381154067814</v>
+        <v>0.2333823889493942</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3935370445251465</v>
       </c>
       <c r="V225" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.525518536567688</v>
       </c>
       <c r="W225" t="n">
-        <v>0.01244837045669556</v>
+        <v>0.01741911470890045</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3957359790802002</v>
       </c>
       <c r="V226" t="n">
-        <v>0.800457239151001</v>
+        <v>0.5293887853622437</v>
       </c>
       <c r="W226" t="n">
-        <v>0.1637993007898331</v>
+        <v>0.01786307245492935</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3999121189117432</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.5201159715652466</v>
       </c>
       <c r="W227" t="n">
-        <v>0.004084763117134571</v>
+        <v>0.01444896589964628</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4120779037475586</v>
       </c>
       <c r="V228" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.4010825455188751</v>
       </c>
       <c r="W228" t="n">
-        <v>0.008638160303235054</v>
+        <v>0.0001208979010698386</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3984589576721191</v>
       </c>
       <c r="V229" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.4995599091053009</v>
       </c>
       <c r="W229" t="n">
-        <v>0.08657623082399368</v>
+        <v>0.01022140216082335</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3956389427185059</v>
       </c>
       <c r="V230" t="n">
-        <v>0.97564297914505</v>
+        <v>0.8796687722206116</v>
       </c>
       <c r="W230" t="n">
-        <v>0.3364046812057495</v>
+        <v>0.2342848777770996</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3974850177764893</v>
       </c>
       <c r="V231" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.4001233577728271</v>
       </c>
       <c r="W231" t="n">
-        <v>0.002180837094783783</v>
+        <v>6.960837708902545e-06</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.399616003036499</v>
       </c>
       <c r="V232" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.887061595916748</v>
       </c>
       <c r="W232" t="n">
-        <v>0.08219412714242935</v>
+        <v>0.2376032024621964</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3987529277801514</v>
       </c>
       <c r="V233" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.870533287525177</v>
       </c>
       <c r="W233" t="n">
-        <v>0.1894166618585587</v>
+        <v>0.2225767076015472</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.452409029006958</v>
       </c>
       <c r="V234" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.4001695513725281</v>
       </c>
       <c r="W234" t="n">
-        <v>0.001439793850295246</v>
+        <v>0.002728963037952781</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4006381034851074</v>
       </c>
       <c r="V235" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.5669509768486023</v>
       </c>
       <c r="W235" t="n">
-        <v>0.1878750622272491</v>
+        <v>0.02765997126698494</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3996059894561768</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.5118588805198669</v>
       </c>
       <c r="W236" t="n">
-        <v>0.008281844668090343</v>
+        <v>0.01260071154683828</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3946049213409424</v>
       </c>
       <c r="V237" t="n">
-        <v>0.802417516708374</v>
+        <v>0.4000124931335449</v>
       </c>
       <c r="W237" t="n">
-        <v>0.166311115026474</v>
+        <v>2.924183354480192e-05</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3952510356903076</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.5180465579032898</v>
       </c>
       <c r="W238" t="n">
-        <v>0.03278426080942154</v>
+        <v>0.01507874019443989</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3937821388244629</v>
       </c>
       <c r="V239" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.5219516754150391</v>
       </c>
       <c r="W239" t="n">
-        <v>0.03321033343672752</v>
+        <v>0.01642742939293385</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.4432170391082764</v>
       </c>
       <c r="V240" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.5237614512443542</v>
       </c>
       <c r="W240" t="n">
-        <v>0.04435600712895393</v>
+        <v>0.006487402133643627</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3973960876464844</v>
       </c>
       <c r="V241" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.5176871418952942</v>
       </c>
       <c r="W241" t="n">
-        <v>0.09375359863042831</v>
+        <v>0.01446993742138147</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8966381549835205</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.8671690225601196</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2294275015592575</v>
+        <v>0.0008684297790750861</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8819739818572998</v>
       </c>
       <c r="V243" t="n">
-        <v>0.576347291469574</v>
+        <v>0.5201854705810547</v>
       </c>
       <c r="W243" t="n">
-        <v>0.09340767562389374</v>
+        <v>0.1308909207582474</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>1.420722007751465</v>
       </c>
       <c r="V244" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.869508683681488</v>
       </c>
       <c r="W244" t="n">
-        <v>1.144819021224976</v>
+        <v>0.3038361370563507</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.9113409519195557</v>
       </c>
       <c r="V245" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.8752749562263489</v>
       </c>
       <c r="W245" t="n">
-        <v>0.04132992029190063</v>
+        <v>0.00130075600463897</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.878180980682373</v>
       </c>
       <c r="V246" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.3990858793258667</v>
       </c>
       <c r="W246" t="n">
-        <v>0.167268842458725</v>
+        <v>0.2295321226119995</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8846957683563232</v>
       </c>
       <c r="V247" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.8892059922218323</v>
       </c>
       <c r="W247" t="n">
-        <v>0.008268522098660469</v>
+        <v>2.034211865975522e-05</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.9451801776885986</v>
       </c>
       <c r="V248" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.3991062939167023</v>
       </c>
       <c r="W248" t="n">
-        <v>0.08506330102682114</v>
+        <v>0.2981967329978943</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8970258235931396</v>
       </c>
       <c r="V249" t="n">
-        <v>0.417653352022171</v>
+        <v>0.4000215828418732</v>
       </c>
       <c r="W249" t="n">
-        <v>0.2297979593276978</v>
+        <v>0.2470132112503052</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8848540782928467</v>
       </c>
       <c r="V250" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.3990965485572815</v>
       </c>
       <c r="W250" t="n">
-        <v>0.257032722234726</v>
+        <v>0.235960379242897</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8989179134368896</v>
       </c>
       <c r="V251" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.5321047306060791</v>
       </c>
       <c r="W251" t="n">
-        <v>0.155230924487114</v>
+        <v>0.1345519125461578</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8949408531188965</v>
       </c>
       <c r="V252" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.4036547243595123</v>
       </c>
       <c r="W252" t="n">
-        <v>0.009001657366752625</v>
+        <v>0.241362065076828</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8837718963623047</v>
       </c>
       <c r="V253" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.8676726222038269</v>
       </c>
       <c r="W253" t="n">
-        <v>0.2173472195863724</v>
+        <v>0.0002591866359580308</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8889861106872559</v>
       </c>
       <c r="V254" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.3999065756797791</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1827768534421921</v>
+        <v>0.2391987890005112</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8846259117126465</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.3991030752658844</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1554821878671646</v>
+        <v>0.2357324212789536</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9144301414489746</v>
       </c>
       <c r="V256" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.8844485282897949</v>
       </c>
       <c r="W256" t="n">
-        <v>0.317731112241745</v>
+        <v>0.0008988971239887178</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8886289596557617</v>
       </c>
       <c r="V257" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.8754798769950867</v>
       </c>
       <c r="W257" t="n">
-        <v>0.003014434361830354</v>
+        <v>0.0001728983770590276</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8732168674468994</v>
       </c>
       <c r="V258" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.8620623350143433</v>
       </c>
       <c r="W258" t="n">
-        <v>0.2443438172340393</v>
+        <v>0.0001244235900230706</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8916809558868408</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.5288546085357666</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1830622553825378</v>
+        <v>0.1316429525613785</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8843059539794922</v>
       </c>
       <c r="V260" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.399088591337204</v>
       </c>
       <c r="W260" t="n">
-        <v>0.00702888797968626</v>
+        <v>0.235435888171196</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8851749897003174</v>
       </c>
       <c r="V261" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.5176944136619568</v>
       </c>
       <c r="W261" t="n">
-        <v>0.2636176347732544</v>
+        <v>0.1350419670343399</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.551753044128418</v>
       </c>
       <c r="V262" t="n">
-        <v>0.708076536655426</v>
+        <v>0.4000096917152405</v>
       </c>
       <c r="W262" t="n">
-        <v>0.02443703450262547</v>
+        <v>0.02302604541182518</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5495140552520752</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.40096315741539</v>
       </c>
       <c r="W263" t="n">
-        <v>0.007347152568399906</v>
+        <v>0.02206736989319324</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5789151191711426</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.3991082608699799</v>
       </c>
       <c r="W264" t="n">
-        <v>0.002895798301324248</v>
+        <v>0.03233050554990768</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5321547985076904</v>
       </c>
       <c r="V265" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.3993313014507294</v>
       </c>
       <c r="W265" t="n">
-        <v>0.002524037612602115</v>
+        <v>0.01764208078384399</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5266609191894531</v>
       </c>
       <c r="V266" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.5307226777076721</v>
       </c>
       <c r="W266" t="n">
-        <v>0.03094449453055859</v>
+        <v>1.649788282520603e-05</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5650289058685303</v>
       </c>
       <c r="V267" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.5214365720748901</v>
       </c>
       <c r="W267" t="n">
-        <v>0.007758462335914373</v>
+        <v>0.001900291536003351</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5281529426574707</v>
       </c>
       <c r="V268" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.3990897834300995</v>
       </c>
       <c r="W268" t="n">
-        <v>0.07560659945011139</v>
+        <v>0.01665729843080044</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5819990634918213</v>
       </c>
       <c r="V269" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.4001756608486176</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01228632964193821</v>
+        <v>0.0330597497522831</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5360510349273682</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.5212298035621643</v>
       </c>
       <c r="W270" t="n">
-        <v>0.0001361609174637124</v>
+        <v>0.0002196689019910991</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5286731719970703</v>
       </c>
       <c r="V271" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.8850632309913635</v>
       </c>
       <c r="W271" t="n">
-        <v>0.07448237389326096</v>
+        <v>0.1270138770341873</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.543071985244751</v>
       </c>
       <c r="V272" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.8730039596557617</v>
       </c>
       <c r="W272" t="n">
-        <v>0.01245866715908051</v>
+        <v>0.1088551059365273</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5315060615539551</v>
       </c>
       <c r="V273" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.3992017209529877</v>
       </c>
       <c r="W273" t="n">
-        <v>0.01519641280174255</v>
+        <v>0.01750443875789642</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5337588787078857</v>
       </c>
       <c r="V274" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.8677334785461426</v>
       </c>
       <c r="W274" t="n">
-        <v>0.02415109798312187</v>
+        <v>0.1115390360355377</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5289969444274902</v>
       </c>
       <c r="V275" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.5109782218933105</v>
       </c>
       <c r="W275" t="n">
-        <v>0.03307877108454704</v>
+        <v>0.0003246743581257761</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5275859832763672</v>
       </c>
       <c r="V276" t="n">
-        <v>0.503772497177124</v>
+        <v>0.4001418948173523</v>
       </c>
       <c r="W276" t="n">
-        <v>0.0005670821410603821</v>
+        <v>0.01624199561774731</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5296249389648438</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.5262559056282043</v>
       </c>
       <c r="W277" t="n">
-        <v>0.002173086395487189</v>
+        <v>1.135038564825663e-05</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5280420780181885</v>
       </c>
       <c r="V278" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.8722663521766663</v>
       </c>
       <c r="W278" t="n">
-        <v>1.253862956218654e-05</v>
+        <v>0.1184903532266617</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5275411605834961</v>
       </c>
       <c r="V279" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.8681216239929199</v>
       </c>
       <c r="W279" t="n">
-        <v>0.03125797212123871</v>
+        <v>0.1159950494766235</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5287988185882568</v>
       </c>
       <c r="V280" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.8837603330612183</v>
       </c>
       <c r="W280" t="n">
-        <v>0.1996258646249771</v>
+        <v>0.1259976774454117</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5344681739807129</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.399097353219986</v>
       </c>
       <c r="W281" t="n">
-        <v>0.005322764161974192</v>
+        <v>0.01832525990903378</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4190528392791748</v>
       </c>
       <c r="V282" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.4001583456993103</v>
       </c>
       <c r="W282" t="n">
-        <v>0.004662904888391495</v>
+        <v>0.0003570018743630499</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4036459922790527</v>
       </c>
       <c r="V283" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.8721843957901001</v>
       </c>
       <c r="W283" t="n">
-        <v>0.1574454009532928</v>
+        <v>0.2195282429456711</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4000530242919922</v>
       </c>
       <c r="V284" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.8762722015380859</v>
       </c>
       <c r="W284" t="n">
-        <v>0.06430654972791672</v>
+        <v>0.2267847061157227</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4007430076599121</v>
       </c>
       <c r="V285" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.3999952375888824</v>
       </c>
       <c r="W285" t="n">
-        <v>0.1917551606893539</v>
+        <v>5.591600711341016e-07</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4022669792175293</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.8718718886375427</v>
       </c>
       <c r="W286" t="n">
-        <v>0.01041025016456842</v>
+        <v>0.2205287665128708</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4026319980621338</v>
       </c>
       <c r="V287" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.4010819494724274</v>
       </c>
       <c r="W287" t="n">
-        <v>0.00757940299808979</v>
+        <v>2.402650579824694e-06</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4033751487731934</v>
       </c>
       <c r="V288" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.8863544464111328</v>
       </c>
       <c r="W288" t="n">
-        <v>0.06259074807167053</v>
+        <v>0.2332690060138702</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4058449268341064</v>
       </c>
       <c r="V289" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.4009839594364166</v>
       </c>
       <c r="W289" t="n">
-        <v>0.3251424133777618</v>
+        <v>2.362900340813212e-05</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3982319831848145</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.5184827446937561</v>
       </c>
       <c r="W290" t="n">
-        <v>0.0003761865955311805</v>
+        <v>0.01446024607867002</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4024550914764404</v>
       </c>
       <c r="V291" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.4001514315605164</v>
       </c>
       <c r="W291" t="n">
-        <v>0.161757305264473</v>
+        <v>5.306848834152333e-06</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4079198837280273</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.3990834057331085</v>
       </c>
       <c r="W292" t="n">
-        <v>0.00681809289380908</v>
+        <v>7.808334339642897e-05</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4028410911560059</v>
       </c>
       <c r="V293" t="n">
-        <v>0.838257908821106</v>
+        <v>0.4025534689426422</v>
       </c>
       <c r="W293" t="n">
-        <v>0.18958780169487</v>
+        <v>8.272653673202512e-08</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3979809284210205</v>
       </c>
       <c r="V294" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.8737267851829529</v>
       </c>
       <c r="W294" t="n">
-        <v>0.09626259654760361</v>
+        <v>0.2263341248035431</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3985970020294189</v>
       </c>
       <c r="V295" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.5312697291374207</v>
       </c>
       <c r="W295" t="n">
-        <v>0.06536154448986053</v>
+        <v>0.01760205253958702</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3992249965667725</v>
       </c>
       <c r="V296" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.5175249576568604</v>
       </c>
       <c r="W296" t="n">
-        <v>0.09541512280702591</v>
+        <v>0.01399488095194101</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4122500419616699</v>
       </c>
       <c r="V297" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.3991029858589172</v>
       </c>
       <c r="W297" t="n">
-        <v>0.05814332887530327</v>
+        <v>0.0001728450879454613</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4023230075836182</v>
       </c>
       <c r="V298" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.4024693667888641</v>
       </c>
       <c r="W298" t="n">
-        <v>0.03003358095884323</v>
+        <v>2.142101607205404e-08</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4112908840179443</v>
       </c>
       <c r="V299" t="n">
-        <v>0.417663037776947</v>
+        <v>0.5113260746002197</v>
       </c>
       <c r="W299" t="n">
-        <v>4.060434366692789e-05</v>
+        <v>0.0100070396438241</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4020810127258301</v>
       </c>
       <c r="V300" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.8666866421699524</v>
       </c>
       <c r="W300" t="n">
-        <v>0.06362414360046387</v>
+        <v>0.2158583849668503</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4020869731903076</v>
       </c>
       <c r="V301" t="n">
-        <v>0.590633749961853</v>
+        <v>0.5261384248733521</v>
       </c>
       <c r="W301" t="n">
-        <v>0.03554988652467728</v>
+        <v>0.01538876257836819</v>
       </c>
     </row>
     <row r="302" spans="1:23">
